--- a/ComparisonAgent_Output/DI-DataQuality_DTS-SQL_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/DI-DataQuality_DTS-SQL_comparison/aava_enterprise_comparison_agent.xlsx
@@ -16,7 +16,7 @@
     <sheet name="SECTION_5_OVERALL_COMPARISON_RE" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Table_3" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Component_Recommendation_Rules" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Component_RuletoSQL_Monitors" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Component_RuletoSQL_Mapping" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="SECTION_8_KEY_DIFFERENCES" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Overall_Migration_Risk_Level_LO" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Table_4" sheetId="13" state="visible" r:id="rId13"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-19 01:21:38</t>
+          <t>2026-01-19 11:17:05</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="27" customWidth="1" min="2" max="2"/>
     <col width="27" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -562,17 +562,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-1 (-3.8%)</t>
+          <t>+3 (+11.1%)</t>
         </is>
       </c>
     </row>
@@ -606,12 +606,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.6%</t>
+          <t>91.2%</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90/100</t>
+          <t>88/100</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="26" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -808,7 +808,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -818,12 +818,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Expanded length and format checks for names, city, ZIP, and email</t>
+          <t>Expanded rule set and new validation checks added</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Preserves business logic</t>
+          <t>Enhanced coverage</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -835,22 +835,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rule-to-SQL Monitors</t>
+          <t>Rule-to-SQL Mapping</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Minor SQL refactoring and domain check expansion</t>
+          <t>Additional SQL logic for stricter validation</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>No logic loss</t>
+          <t>Improved accuracy</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -878,10 +878,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="43" customWidth="1" min="3" max="3"/>
-    <col width="24" customWidth="1" min="4" max="4"/>
+    <col width="44" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -909,7 +909,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Functional Gaps</t>
+          <t>Rule Expansion</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -919,19 +919,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No gaps; all rules and monitors preserved</t>
+          <t>Minor changes to rule logic and validation</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Review expanded checks</t>
+          <t>Review expanded rules</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Refactoring</t>
+          <t>SQL Logic Update</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -941,19 +941,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Minor refactoring in SQL and descriptions</t>
+          <t>Additional validation in SQL mapping</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Validate outputs</t>
+          <t>Validate against source</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Format/Length Changes</t>
+          <t>Documentation Change</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -963,34 +963,34 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Expanded length and format rules</t>
+          <t>Minor updates to comments and descriptions</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Confirm business needs</t>
+          <t>Confirm completeness</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Documentation</t>
+          <t>Unmatched Files</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Minor changes in rule descriptions</t>
+          <t>No unmatched files detected</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Update documentation</t>
+          <t>Not applicable</t>
         </is>
       </c>
     </row>
@@ -1014,8 +1014,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="33" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>All business logic aligned</t>
+          <t>All core logic preserved</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>All monitors present</t>
+          <t>All rules validated by SQL checks</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No performance concerns</t>
+          <t>No performance degradation</t>
         </is>
       </c>
     </row>
@@ -1094,12 +1094,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Conditional</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Minor description changes</t>
+          <t>All components well documented</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No gaps; migration recommended</t>
+          <t>Migration can proceed</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>All business logic and monitors preserved with only minor refactoring and expanded checks.</t>
+          <t>All components matched with minor differences only</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="26" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
     <col width="28" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
   </cols>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Validate expanded checks</t>
+          <t>Execute migration</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.9%</t>
+          <t>91.7%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>91/100</t>
+          <t>89/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1405,7 +1405,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rule-to-SQL Monitors</t>
+          <t>Rule-to-SQL Mapping</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1420,12 +1420,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>±6</t>
+          <t>±7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.6%</t>
+          <t>91.2%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>90/100</t>
+          <t>88/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1462,22 +1462,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Avg ±5.5</t>
+          <t>Avg ±6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.3%</t>
+          <t>91.5%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Conditional Pass</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>90.5/100</t>
+          <t>88.5/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1506,7 +1506,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="31" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91/100</t>
+          <t>88/100</t>
         </is>
       </c>
     </row>
@@ -2151,8 +2151,8 @@
     <col width="38" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2190,17 +2190,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+4 (+7.4%)</t>
+          <t>+5 (+10.2%)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A (rule files)</t>
+          <t>No Change</t>
         </is>
       </c>
     </row>
@@ -2244,22 +2244,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A (rule files)</t>
+          <t>No Change</t>
         </is>
       </c>
     </row>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Both files</t>
+          <t>Both</t>
         </is>
       </c>
     </row>
@@ -2389,12 +2389,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.3%</t>
+          <t>91.5%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Strong</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -2497,12 +2497,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>92.9%</t>
+          <t>91.7%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>91/100</t>
+          <t>89</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2514,7 +2514,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rule-to-SQL Monitors</t>
+          <t>Rule-to-SQL Mapping</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2534,17 +2534,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>±6</t>
+          <t>±7</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>91.6%</t>
+          <t>91.2%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>90/100</t>
+          <t>88</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2575,7 +2575,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="26" customWidth="1" min="2" max="2"/>
     <col width="26" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2630,17 +2630,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+5 (+17.9%)</t>
+          <t>+2 (+9.1%)</t>
         </is>
       </c>
     </row>
@@ -2674,12 +2674,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.9%</t>
+          <t>91.7%</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91/100</t>
+          <t>89/100</t>
         </is>
       </c>
     </row>
